--- a/InputData/elec/PMCRS/Pol Mandated Cap Retro Sched.xlsx
+++ b/InputData/elec/PMCRS/Pol Mandated Cap Retro Sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\PMCRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD25105-A0D1-4B8F-9CCA-CFD230FDBD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157B3B7-0A7B-42DB-A658-FA72DDDDB9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9199B2FD-BD64-4DD1-9285-C284D90C08CC}"/>
   </bookViews>
@@ -145,9 +145,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
-    <pivotCache cacheId="4" r:id="rId8"/>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="7" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1071,13 +1071,13 @@
     <t>Final Rule Sens  Vehicle Rules MATS and ELG SSR.xlsx</t>
   </si>
   <si>
-    <t>In the U.S., we use this file to represent expected coal CCS retrofits due to EPA 111 Rules</t>
-  </si>
-  <si>
     <t>for existing coal capacity.</t>
   </si>
   <si>
     <t>PMCRS Policy Mandated Capacity Retrofit Schedule</t>
+  </si>
+  <si>
+    <t>In the U.S., we use this file to represent removing expected coal CCS retrofits due to EPA 111 Rules</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,7 +1678,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1992,7 +1992,6 @@
     <xf numFmtId="1" fontId="24" fillId="12" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="7" applyFont="1" applyAlignment="1">
@@ -76182,7 +76181,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000002000000}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000002000000}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A57:I76" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -76339,7 +76338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:I25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -76534,7 +76533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000001000000}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000001000000}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A33:I52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0" sortType="ascending">
@@ -77011,246 +77010,246 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>277</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>278</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>279</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2024</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>280</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>281</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="45"/>
       <c r="G35" s="45"/>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="45"/>
       <c r="G36" s="45"/>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="45"/>
       <c r="G37" s="45"/>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="45"/>
       <c r="G38" s="45"/>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="45"/>
       <c r="G39" s="45"/>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="45"/>
       <c r="G40" s="45"/>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" s="45"/>
       <c r="G42" s="45"/>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" s="45"/>
       <c r="G44" s="45"/>
     </row>
-    <row r="45" spans="6:7">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
     </row>
-    <row r="46" spans="6:7">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" s="45"/>
       <c r="G46" s="45"/>
     </row>
-    <row r="47" spans="6:7">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
     </row>
@@ -77266,13 +77265,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
@@ -77370,8 +77369,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
@@ -77383,7 +77382,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
@@ -77397,7 +77396,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
@@ -77409,7 +77408,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
@@ -77421,7 +77420,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -77429,7 +77428,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
@@ -77440,7 +77439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
@@ -77448,7 +77447,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -77485,7 +77484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
@@ -77586,18 +77585,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:34" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>64</v>
       </c>
@@ -77701,7 +77700,7 @@
         <v>-3.5593E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>66</v>
       </c>
@@ -77805,7 +77804,7 @@
         <v>-1.1639E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
@@ -77909,7 +77908,7 @@
         <v>2.2079999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
@@ -78013,7 +78012,7 @@
         <v>2.6945E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
@@ -78117,7 +78116,7 @@
         <v>-2.7585999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>74</v>
       </c>
@@ -78221,7 +78220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>76</v>
       </c>
@@ -78325,7 +78324,7 @@
         <v>5.9369999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>78</v>
       </c>
@@ -78429,7 +78428,7 @@
         <v>4.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>80</v>
       </c>
@@ -78533,7 +78532,7 @@
         <v>2.9822000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>82</v>
       </c>
@@ -78637,7 +78636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>85</v>
       </c>
@@ -78741,12 +78740,12 @@
         <v>1.5070999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>88</v>
       </c>
@@ -78850,7 +78849,7 @@
         <v>-1.9059999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>90</v>
       </c>
@@ -78954,7 +78953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="14.85" customHeight="1">
+    <row r="31" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>92</v>
       </c>
@@ -79058,7 +79057,7 @@
         <v>-2.72E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="14.85" customHeight="1">
+    <row r="32" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
@@ -79162,7 +79161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="14.85" customHeight="1">
+    <row r="33" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>94</v>
       </c>
@@ -79266,7 +79265,7 @@
         <v>6.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="14.85" customHeight="1">
+    <row r="34" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>95</v>
       </c>
@@ -79370,12 +79369,12 @@
         <v>-3.3E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="14.85" customHeight="1">
+    <row r="36" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="14.85" customHeight="1">
+    <row r="37" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>97</v>
       </c>
@@ -79479,7 +79478,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="14.85" customHeight="1">
+    <row r="38" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>98</v>
       </c>
@@ -79583,7 +79582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="14.85" customHeight="1">
+    <row r="39" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>99</v>
       </c>
@@ -79687,7 +79686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="14.85" customHeight="1">
+    <row r="40" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>100</v>
       </c>
@@ -79791,7 +79790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="14.85" customHeight="1">
+    <row r="41" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>101</v>
       </c>
@@ -79895,7 +79894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="14.85" customHeight="1">
+    <row r="42" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>103</v>
       </c>
@@ -79999,7 +79998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="14.85" customHeight="1">
+    <row r="43" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>104</v>
       </c>
@@ -80103,7 +80102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="14.85" customHeight="1">
+    <row r="44" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>105</v>
       </c>
@@ -80207,7 +80206,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="14.85" customHeight="1">
+    <row r="45" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>106</v>
       </c>
@@ -80311,7 +80310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="14.85" customHeight="1">
+    <row r="46" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>107</v>
       </c>
@@ -80415,7 +80414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="14.85" customHeight="1">
+    <row r="47" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>109</v>
       </c>
@@ -80519,12 +80518,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="14.85" customHeight="1">
+    <row r="48" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="14.85" customHeight="1">
+    <row r="49" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>111</v>
       </c>
@@ -80628,7 +80627,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>112</v>
       </c>
@@ -80732,7 +80731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>113</v>
       </c>
@@ -80836,7 +80835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>114</v>
       </c>
@@ -80940,7 +80939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>115</v>
       </c>
@@ -81044,7 +81043,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>116</v>
       </c>
@@ -81148,7 +81147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>117</v>
       </c>
@@ -81252,7 +81251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
@@ -81356,7 +81355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>119</v>
       </c>
@@ -81460,7 +81459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>120</v>
       </c>
@@ -81564,7 +81563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>121</v>
       </c>
@@ -81668,7 +81667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>122</v>
       </c>
@@ -81772,12 +81771,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:34" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>125</v>
       </c>
@@ -81881,7 +81880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
@@ -81985,7 +81984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1">
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>127</v>
       </c>
@@ -82089,7 +82088,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="14.85" customHeight="1">
+    <row r="66" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>128</v>
       </c>
@@ -82193,7 +82192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>129</v>
       </c>
@@ -82297,7 +82296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>130</v>
       </c>
@@ -82401,7 +82400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>131</v>
       </c>
@@ -82505,7 +82504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>132</v>
       </c>
@@ -82609,7 +82608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>133</v>
       </c>
@@ -82713,7 +82712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>134</v>
       </c>
@@ -82817,7 +82816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1">
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>135</v>
       </c>
@@ -82921,12 +82920,12 @@
         <v>1.4742999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>138</v>
       </c>
@@ -83030,7 +83029,7 @@
         <v>-1.4040000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>139</v>
       </c>
@@ -83134,7 +83133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="14.85" customHeight="1">
+    <row r="79" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>141</v>
       </c>
@@ -83238,7 +83237,7 @@
         <v>2.2790999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>143</v>
       </c>
@@ -83342,7 +83341,7 @@
         <v>5.0600000000000005E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="14.85" customHeight="1">
+    <row r="81" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>145</v>
       </c>
@@ -83446,7 +83445,7 @@
         <v>4.8174000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>146</v>
       </c>
@@ -83550,7 +83549,7 @@
         <v>2.5270000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>148</v>
       </c>
@@ -83654,7 +83653,7 @@
         <v>3.9715E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>149</v>
       </c>
@@ -83758,875 +83757,866 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1"/>
-    <row r="87" spans="1:34" ht="15" customHeight="1">
-      <c r="B87" s="144" t="s">
+    <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="145"/>
-      <c r="I87" s="145"/>
-      <c r="J87" s="145"/>
-      <c r="K87" s="145"/>
-      <c r="L87" s="145"/>
-      <c r="M87" s="145"/>
-      <c r="N87" s="145"/>
-      <c r="O87" s="145"/>
-      <c r="P87" s="145"/>
-      <c r="Q87" s="145"/>
-      <c r="R87" s="145"/>
-      <c r="S87" s="145"/>
-      <c r="T87" s="145"/>
-      <c r="U87" s="145"/>
-      <c r="V87" s="145"/>
-      <c r="W87" s="145"/>
-      <c r="X87" s="145"/>
-      <c r="Y87" s="145"/>
-      <c r="Z87" s="145"/>
-      <c r="AA87" s="145"/>
-      <c r="AB87" s="145"/>
-      <c r="AC87" s="145"/>
-      <c r="AD87" s="145"/>
-      <c r="AE87" s="145"/>
-      <c r="AF87" s="145"/>
-      <c r="AG87" s="145"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="144"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="144"/>
+      <c r="I87" s="144"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="144"/>
+      <c r="L87" s="144"/>
+      <c r="M87" s="144"/>
+      <c r="N87" s="144"/>
+      <c r="O87" s="144"/>
+      <c r="P87" s="144"/>
+      <c r="Q87" s="144"/>
+      <c r="R87" s="144"/>
+      <c r="S87" s="144"/>
+      <c r="T87" s="144"/>
+      <c r="U87" s="144"/>
+      <c r="V87" s="144"/>
+      <c r="W87" s="144"/>
+      <c r="X87" s="144"/>
+      <c r="Y87" s="144"/>
+      <c r="Z87" s="144"/>
+      <c r="AA87" s="144"/>
+      <c r="AB87" s="144"/>
+      <c r="AC87" s="144"/>
+      <c r="AD87" s="144"/>
+      <c r="AE87" s="144"/>
+      <c r="AF87" s="144"/>
+      <c r="AG87" s="144"/>
       <c r="AH87" s="23"/>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:34" ht="14.85" customHeight="1">
+    <row r="92" spans="1:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1">
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="2:34" ht="15" customHeight="1">
+    <row r="97" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="2:34" ht="15" customHeight="1">
+    <row r="98" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="2:34" ht="15" customHeight="1">
+    <row r="99" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="2:34" ht="15" customHeight="1">
+    <row r="100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="2:34" ht="14.85" customHeight="1">
+    <row r="101" spans="2:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="2:34" ht="14.85" customHeight="1">
+    <row r="102" spans="2:34" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="2:34" ht="15" customHeight="1">
+    <row r="103" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="2:34" ht="15" customHeight="1">
+    <row r="104" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="105" spans="2:34" ht="15" customHeight="1">
+    <row r="105" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="2:34" ht="15" customHeight="1">
+    <row r="106" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="2:34" ht="15" customHeight="1">
+    <row r="107" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="2:34" ht="15" customHeight="1">
+    <row r="108" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="2:34" ht="15" customHeight="1">
+    <row r="109" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="2:34" ht="15" customHeight="1">
+    <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="2:34" ht="15" customHeight="1">
+    <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="2:34" ht="15" customHeight="1">
-      <c r="B112" s="143"/>
-      <c r="C112" s="143"/>
-      <c r="D112" s="143"/>
-      <c r="E112" s="143"/>
-      <c r="F112" s="143"/>
-      <c r="G112" s="143"/>
-      <c r="H112" s="143"/>
-      <c r="I112" s="143"/>
-      <c r="J112" s="143"/>
-      <c r="K112" s="143"/>
-      <c r="L112" s="143"/>
-      <c r="M112" s="143"/>
-      <c r="N112" s="143"/>
-      <c r="O112" s="143"/>
-      <c r="P112" s="143"/>
-      <c r="Q112" s="143"/>
-      <c r="R112" s="143"/>
-      <c r="S112" s="143"/>
-      <c r="T112" s="143"/>
-      <c r="U112" s="143"/>
-      <c r="V112" s="143"/>
-      <c r="W112" s="143"/>
-      <c r="X112" s="143"/>
-      <c r="Y112" s="143"/>
-      <c r="Z112" s="143"/>
-      <c r="AA112" s="143"/>
-      <c r="AB112" s="143"/>
-      <c r="AC112" s="143"/>
-      <c r="AD112" s="143"/>
-      <c r="AE112" s="143"/>
-      <c r="AF112" s="143"/>
-      <c r="AG112" s="143"/>
-      <c r="AH112" s="143"/>
+    <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="142"/>
+      <c r="C112" s="142"/>
+      <c r="D112" s="142"/>
+      <c r="E112" s="142"/>
+      <c r="F112" s="142"/>
+      <c r="G112" s="142"/>
+      <c r="H112" s="142"/>
+      <c r="I112" s="142"/>
+      <c r="J112" s="142"/>
+      <c r="K112" s="142"/>
+      <c r="L112" s="142"/>
+      <c r="M112" s="142"/>
+      <c r="N112" s="142"/>
+      <c r="O112" s="142"/>
+      <c r="P112" s="142"/>
+      <c r="Q112" s="142"/>
+      <c r="R112" s="142"/>
+      <c r="S112" s="142"/>
+      <c r="T112" s="142"/>
+      <c r="U112" s="142"/>
+      <c r="V112" s="142"/>
+      <c r="W112" s="142"/>
+      <c r="X112" s="142"/>
+      <c r="Y112" s="142"/>
+      <c r="Z112" s="142"/>
+      <c r="AA112" s="142"/>
+      <c r="AB112" s="142"/>
+      <c r="AC112" s="142"/>
+      <c r="AD112" s="142"/>
+      <c r="AE112" s="142"/>
+      <c r="AF112" s="142"/>
+      <c r="AG112" s="142"/>
+      <c r="AH112" s="142"/>
     </row>
-    <row r="308" spans="2:34" ht="15" customHeight="1">
-      <c r="B308" s="143"/>
-      <c r="C308" s="143"/>
-      <c r="D308" s="143"/>
-      <c r="E308" s="143"/>
-      <c r="F308" s="143"/>
-      <c r="G308" s="143"/>
-      <c r="H308" s="143"/>
-      <c r="I308" s="143"/>
-      <c r="J308" s="143"/>
-      <c r="K308" s="143"/>
-      <c r="L308" s="143"/>
-      <c r="M308" s="143"/>
-      <c r="N308" s="143"/>
-      <c r="O308" s="143"/>
-      <c r="P308" s="143"/>
-      <c r="Q308" s="143"/>
-      <c r="R308" s="143"/>
-      <c r="S308" s="143"/>
-      <c r="T308" s="143"/>
-      <c r="U308" s="143"/>
-      <c r="V308" s="143"/>
-      <c r="W308" s="143"/>
-      <c r="X308" s="143"/>
-      <c r="Y308" s="143"/>
-      <c r="Z308" s="143"/>
-      <c r="AA308" s="143"/>
-      <c r="AB308" s="143"/>
-      <c r="AC308" s="143"/>
-      <c r="AD308" s="143"/>
-      <c r="AE308" s="143"/>
-      <c r="AF308" s="143"/>
-      <c r="AG308" s="143"/>
-      <c r="AH308" s="143"/>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="142"/>
+      <c r="C308" s="142"/>
+      <c r="D308" s="142"/>
+      <c r="E308" s="142"/>
+      <c r="F308" s="142"/>
+      <c r="G308" s="142"/>
+      <c r="H308" s="142"/>
+      <c r="I308" s="142"/>
+      <c r="J308" s="142"/>
+      <c r="K308" s="142"/>
+      <c r="L308" s="142"/>
+      <c r="M308" s="142"/>
+      <c r="N308" s="142"/>
+      <c r="O308" s="142"/>
+      <c r="P308" s="142"/>
+      <c r="Q308" s="142"/>
+      <c r="R308" s="142"/>
+      <c r="S308" s="142"/>
+      <c r="T308" s="142"/>
+      <c r="U308" s="142"/>
+      <c r="V308" s="142"/>
+      <c r="W308" s="142"/>
+      <c r="X308" s="142"/>
+      <c r="Y308" s="142"/>
+      <c r="Z308" s="142"/>
+      <c r="AA308" s="142"/>
+      <c r="AB308" s="142"/>
+      <c r="AC308" s="142"/>
+      <c r="AD308" s="142"/>
+      <c r="AE308" s="142"/>
+      <c r="AF308" s="142"/>
+      <c r="AG308" s="142"/>
+      <c r="AH308" s="142"/>
     </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1">
-      <c r="B511" s="143"/>
-      <c r="C511" s="143"/>
-      <c r="D511" s="143"/>
-      <c r="E511" s="143"/>
-      <c r="F511" s="143"/>
-      <c r="G511" s="143"/>
-      <c r="H511" s="143"/>
-      <c r="I511" s="143"/>
-      <c r="J511" s="143"/>
-      <c r="K511" s="143"/>
-      <c r="L511" s="143"/>
-      <c r="M511" s="143"/>
-      <c r="N511" s="143"/>
-      <c r="O511" s="143"/>
-      <c r="P511" s="143"/>
-      <c r="Q511" s="143"/>
-      <c r="R511" s="143"/>
-      <c r="S511" s="143"/>
-      <c r="T511" s="143"/>
-      <c r="U511" s="143"/>
-      <c r="V511" s="143"/>
-      <c r="W511" s="143"/>
-      <c r="X511" s="143"/>
-      <c r="Y511" s="143"/>
-      <c r="Z511" s="143"/>
-      <c r="AA511" s="143"/>
-      <c r="AB511" s="143"/>
-      <c r="AC511" s="143"/>
-      <c r="AD511" s="143"/>
-      <c r="AE511" s="143"/>
-      <c r="AF511" s="143"/>
-      <c r="AG511" s="143"/>
-      <c r="AH511" s="143"/>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="142"/>
+      <c r="C511" s="142"/>
+      <c r="D511" s="142"/>
+      <c r="E511" s="142"/>
+      <c r="F511" s="142"/>
+      <c r="G511" s="142"/>
+      <c r="H511" s="142"/>
+      <c r="I511" s="142"/>
+      <c r="J511" s="142"/>
+      <c r="K511" s="142"/>
+      <c r="L511" s="142"/>
+      <c r="M511" s="142"/>
+      <c r="N511" s="142"/>
+      <c r="O511" s="142"/>
+      <c r="P511" s="142"/>
+      <c r="Q511" s="142"/>
+      <c r="R511" s="142"/>
+      <c r="S511" s="142"/>
+      <c r="T511" s="142"/>
+      <c r="U511" s="142"/>
+      <c r="V511" s="142"/>
+      <c r="W511" s="142"/>
+      <c r="X511" s="142"/>
+      <c r="Y511" s="142"/>
+      <c r="Z511" s="142"/>
+      <c r="AA511" s="142"/>
+      <c r="AB511" s="142"/>
+      <c r="AC511" s="142"/>
+      <c r="AD511" s="142"/>
+      <c r="AE511" s="142"/>
+      <c r="AF511" s="142"/>
+      <c r="AG511" s="142"/>
+      <c r="AH511" s="142"/>
     </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1">
-      <c r="B712" s="143"/>
-      <c r="C712" s="143"/>
-      <c r="D712" s="143"/>
-      <c r="E712" s="143"/>
-      <c r="F712" s="143"/>
-      <c r="G712" s="143"/>
-      <c r="H712" s="143"/>
-      <c r="I712" s="143"/>
-      <c r="J712" s="143"/>
-      <c r="K712" s="143"/>
-      <c r="L712" s="143"/>
-      <c r="M712" s="143"/>
-      <c r="N712" s="143"/>
-      <c r="O712" s="143"/>
-      <c r="P712" s="143"/>
-      <c r="Q712" s="143"/>
-      <c r="R712" s="143"/>
-      <c r="S712" s="143"/>
-      <c r="T712" s="143"/>
-      <c r="U712" s="143"/>
-      <c r="V712" s="143"/>
-      <c r="W712" s="143"/>
-      <c r="X712" s="143"/>
-      <c r="Y712" s="143"/>
-      <c r="Z712" s="143"/>
-      <c r="AA712" s="143"/>
-      <c r="AB712" s="143"/>
-      <c r="AC712" s="143"/>
-      <c r="AD712" s="143"/>
-      <c r="AE712" s="143"/>
-      <c r="AF712" s="143"/>
-      <c r="AG712" s="143"/>
-      <c r="AH712" s="143"/>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="142"/>
+      <c r="C712" s="142"/>
+      <c r="D712" s="142"/>
+      <c r="E712" s="142"/>
+      <c r="F712" s="142"/>
+      <c r="G712" s="142"/>
+      <c r="H712" s="142"/>
+      <c r="I712" s="142"/>
+      <c r="J712" s="142"/>
+      <c r="K712" s="142"/>
+      <c r="L712" s="142"/>
+      <c r="M712" s="142"/>
+      <c r="N712" s="142"/>
+      <c r="O712" s="142"/>
+      <c r="P712" s="142"/>
+      <c r="Q712" s="142"/>
+      <c r="R712" s="142"/>
+      <c r="S712" s="142"/>
+      <c r="T712" s="142"/>
+      <c r="U712" s="142"/>
+      <c r="V712" s="142"/>
+      <c r="W712" s="142"/>
+      <c r="X712" s="142"/>
+      <c r="Y712" s="142"/>
+      <c r="Z712" s="142"/>
+      <c r="AA712" s="142"/>
+      <c r="AB712" s="142"/>
+      <c r="AC712" s="142"/>
+      <c r="AD712" s="142"/>
+      <c r="AE712" s="142"/>
+      <c r="AF712" s="142"/>
+      <c r="AG712" s="142"/>
+      <c r="AH712" s="142"/>
     </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1">
-      <c r="B887" s="143"/>
-      <c r="C887" s="143"/>
-      <c r="D887" s="143"/>
-      <c r="E887" s="143"/>
-      <c r="F887" s="143"/>
-      <c r="G887" s="143"/>
-      <c r="H887" s="143"/>
-      <c r="I887" s="143"/>
-      <c r="J887" s="143"/>
-      <c r="K887" s="143"/>
-      <c r="L887" s="143"/>
-      <c r="M887" s="143"/>
-      <c r="N887" s="143"/>
-      <c r="O887" s="143"/>
-      <c r="P887" s="143"/>
-      <c r="Q887" s="143"/>
-      <c r="R887" s="143"/>
-      <c r="S887" s="143"/>
-      <c r="T887" s="143"/>
-      <c r="U887" s="143"/>
-      <c r="V887" s="143"/>
-      <c r="W887" s="143"/>
-      <c r="X887" s="143"/>
-      <c r="Y887" s="143"/>
-      <c r="Z887" s="143"/>
-      <c r="AA887" s="143"/>
-      <c r="AB887" s="143"/>
-      <c r="AC887" s="143"/>
-      <c r="AD887" s="143"/>
-      <c r="AE887" s="143"/>
-      <c r="AF887" s="143"/>
-      <c r="AG887" s="143"/>
-      <c r="AH887" s="143"/>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="142"/>
+      <c r="C887" s="142"/>
+      <c r="D887" s="142"/>
+      <c r="E887" s="142"/>
+      <c r="F887" s="142"/>
+      <c r="G887" s="142"/>
+      <c r="H887" s="142"/>
+      <c r="I887" s="142"/>
+      <c r="J887" s="142"/>
+      <c r="K887" s="142"/>
+      <c r="L887" s="142"/>
+      <c r="M887" s="142"/>
+      <c r="N887" s="142"/>
+      <c r="O887" s="142"/>
+      <c r="P887" s="142"/>
+      <c r="Q887" s="142"/>
+      <c r="R887" s="142"/>
+      <c r="S887" s="142"/>
+      <c r="T887" s="142"/>
+      <c r="U887" s="142"/>
+      <c r="V887" s="142"/>
+      <c r="W887" s="142"/>
+      <c r="X887" s="142"/>
+      <c r="Y887" s="142"/>
+      <c r="Z887" s="142"/>
+      <c r="AA887" s="142"/>
+      <c r="AB887" s="142"/>
+      <c r="AC887" s="142"/>
+      <c r="AD887" s="142"/>
+      <c r="AE887" s="142"/>
+      <c r="AF887" s="142"/>
+      <c r="AG887" s="142"/>
+      <c r="AH887" s="142"/>
     </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1">
-      <c r="B1100" s="143"/>
-      <c r="C1100" s="143"/>
-      <c r="D1100" s="143"/>
-      <c r="E1100" s="143"/>
-      <c r="F1100" s="143"/>
-      <c r="G1100" s="143"/>
-      <c r="H1100" s="143"/>
-      <c r="I1100" s="143"/>
-      <c r="J1100" s="143"/>
-      <c r="K1100" s="143"/>
-      <c r="L1100" s="143"/>
-      <c r="M1100" s="143"/>
-      <c r="N1100" s="143"/>
-      <c r="O1100" s="143"/>
-      <c r="P1100" s="143"/>
-      <c r="Q1100" s="143"/>
-      <c r="R1100" s="143"/>
-      <c r="S1100" s="143"/>
-      <c r="T1100" s="143"/>
-      <c r="U1100" s="143"/>
-      <c r="V1100" s="143"/>
-      <c r="W1100" s="143"/>
-      <c r="X1100" s="143"/>
-      <c r="Y1100" s="143"/>
-      <c r="Z1100" s="143"/>
-      <c r="AA1100" s="143"/>
-      <c r="AB1100" s="143"/>
-      <c r="AC1100" s="143"/>
-      <c r="AD1100" s="143"/>
-      <c r="AE1100" s="143"/>
-      <c r="AF1100" s="143"/>
-      <c r="AG1100" s="143"/>
-      <c r="AH1100" s="143"/>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1100" s="142"/>
+      <c r="C1100" s="142"/>
+      <c r="D1100" s="142"/>
+      <c r="E1100" s="142"/>
+      <c r="F1100" s="142"/>
+      <c r="G1100" s="142"/>
+      <c r="H1100" s="142"/>
+      <c r="I1100" s="142"/>
+      <c r="J1100" s="142"/>
+      <c r="K1100" s="142"/>
+      <c r="L1100" s="142"/>
+      <c r="M1100" s="142"/>
+      <c r="N1100" s="142"/>
+      <c r="O1100" s="142"/>
+      <c r="P1100" s="142"/>
+      <c r="Q1100" s="142"/>
+      <c r="R1100" s="142"/>
+      <c r="S1100" s="142"/>
+      <c r="T1100" s="142"/>
+      <c r="U1100" s="142"/>
+      <c r="V1100" s="142"/>
+      <c r="W1100" s="142"/>
+      <c r="X1100" s="142"/>
+      <c r="Y1100" s="142"/>
+      <c r="Z1100" s="142"/>
+      <c r="AA1100" s="142"/>
+      <c r="AB1100" s="142"/>
+      <c r="AC1100" s="142"/>
+      <c r="AD1100" s="142"/>
+      <c r="AE1100" s="142"/>
+      <c r="AF1100" s="142"/>
+      <c r="AG1100" s="142"/>
+      <c r="AH1100" s="142"/>
     </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1">
-      <c r="B1227" s="143"/>
-      <c r="C1227" s="143"/>
-      <c r="D1227" s="143"/>
-      <c r="E1227" s="143"/>
-      <c r="F1227" s="143"/>
-      <c r="G1227" s="143"/>
-      <c r="H1227" s="143"/>
-      <c r="I1227" s="143"/>
-      <c r="J1227" s="143"/>
-      <c r="K1227" s="143"/>
-      <c r="L1227" s="143"/>
-      <c r="M1227" s="143"/>
-      <c r="N1227" s="143"/>
-      <c r="O1227" s="143"/>
-      <c r="P1227" s="143"/>
-      <c r="Q1227" s="143"/>
-      <c r="R1227" s="143"/>
-      <c r="S1227" s="143"/>
-      <c r="T1227" s="143"/>
-      <c r="U1227" s="143"/>
-      <c r="V1227" s="143"/>
-      <c r="W1227" s="143"/>
-      <c r="X1227" s="143"/>
-      <c r="Y1227" s="143"/>
-      <c r="Z1227" s="143"/>
-      <c r="AA1227" s="143"/>
-      <c r="AB1227" s="143"/>
-      <c r="AC1227" s="143"/>
-      <c r="AD1227" s="143"/>
-      <c r="AE1227" s="143"/>
-      <c r="AF1227" s="143"/>
-      <c r="AG1227" s="143"/>
-      <c r="AH1227" s="143"/>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1227" s="142"/>
+      <c r="C1227" s="142"/>
+      <c r="D1227" s="142"/>
+      <c r="E1227" s="142"/>
+      <c r="F1227" s="142"/>
+      <c r="G1227" s="142"/>
+      <c r="H1227" s="142"/>
+      <c r="I1227" s="142"/>
+      <c r="J1227" s="142"/>
+      <c r="K1227" s="142"/>
+      <c r="L1227" s="142"/>
+      <c r="M1227" s="142"/>
+      <c r="N1227" s="142"/>
+      <c r="O1227" s="142"/>
+      <c r="P1227" s="142"/>
+      <c r="Q1227" s="142"/>
+      <c r="R1227" s="142"/>
+      <c r="S1227" s="142"/>
+      <c r="T1227" s="142"/>
+      <c r="U1227" s="142"/>
+      <c r="V1227" s="142"/>
+      <c r="W1227" s="142"/>
+      <c r="X1227" s="142"/>
+      <c r="Y1227" s="142"/>
+      <c r="Z1227" s="142"/>
+      <c r="AA1227" s="142"/>
+      <c r="AB1227" s="142"/>
+      <c r="AC1227" s="142"/>
+      <c r="AD1227" s="142"/>
+      <c r="AE1227" s="142"/>
+      <c r="AF1227" s="142"/>
+      <c r="AG1227" s="142"/>
+      <c r="AH1227" s="142"/>
     </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1">
-      <c r="B1390" s="143"/>
-      <c r="C1390" s="143"/>
-      <c r="D1390" s="143"/>
-      <c r="E1390" s="143"/>
-      <c r="F1390" s="143"/>
-      <c r="G1390" s="143"/>
-      <c r="H1390" s="143"/>
-      <c r="I1390" s="143"/>
-      <c r="J1390" s="143"/>
-      <c r="K1390" s="143"/>
-      <c r="L1390" s="143"/>
-      <c r="M1390" s="143"/>
-      <c r="N1390" s="143"/>
-      <c r="O1390" s="143"/>
-      <c r="P1390" s="143"/>
-      <c r="Q1390" s="143"/>
-      <c r="R1390" s="143"/>
-      <c r="S1390" s="143"/>
-      <c r="T1390" s="143"/>
-      <c r="U1390" s="143"/>
-      <c r="V1390" s="143"/>
-      <c r="W1390" s="143"/>
-      <c r="X1390" s="143"/>
-      <c r="Y1390" s="143"/>
-      <c r="Z1390" s="143"/>
-      <c r="AA1390" s="143"/>
-      <c r="AB1390" s="143"/>
-      <c r="AC1390" s="143"/>
-      <c r="AD1390" s="143"/>
-      <c r="AE1390" s="143"/>
-      <c r="AF1390" s="143"/>
-      <c r="AG1390" s="143"/>
-      <c r="AH1390" s="143"/>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1390" s="142"/>
+      <c r="C1390" s="142"/>
+      <c r="D1390" s="142"/>
+      <c r="E1390" s="142"/>
+      <c r="F1390" s="142"/>
+      <c r="G1390" s="142"/>
+      <c r="H1390" s="142"/>
+      <c r="I1390" s="142"/>
+      <c r="J1390" s="142"/>
+      <c r="K1390" s="142"/>
+      <c r="L1390" s="142"/>
+      <c r="M1390" s="142"/>
+      <c r="N1390" s="142"/>
+      <c r="O1390" s="142"/>
+      <c r="P1390" s="142"/>
+      <c r="Q1390" s="142"/>
+      <c r="R1390" s="142"/>
+      <c r="S1390" s="142"/>
+      <c r="T1390" s="142"/>
+      <c r="U1390" s="142"/>
+      <c r="V1390" s="142"/>
+      <c r="W1390" s="142"/>
+      <c r="X1390" s="142"/>
+      <c r="Y1390" s="142"/>
+      <c r="Z1390" s="142"/>
+      <c r="AA1390" s="142"/>
+      <c r="AB1390" s="142"/>
+      <c r="AC1390" s="142"/>
+      <c r="AD1390" s="142"/>
+      <c r="AE1390" s="142"/>
+      <c r="AF1390" s="142"/>
+      <c r="AG1390" s="142"/>
+      <c r="AH1390" s="142"/>
     </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1">
-      <c r="B1502" s="143"/>
-      <c r="C1502" s="143"/>
-      <c r="D1502" s="143"/>
-      <c r="E1502" s="143"/>
-      <c r="F1502" s="143"/>
-      <c r="G1502" s="143"/>
-      <c r="H1502" s="143"/>
-      <c r="I1502" s="143"/>
-      <c r="J1502" s="143"/>
-      <c r="K1502" s="143"/>
-      <c r="L1502" s="143"/>
-      <c r="M1502" s="143"/>
-      <c r="N1502" s="143"/>
-      <c r="O1502" s="143"/>
-      <c r="P1502" s="143"/>
-      <c r="Q1502" s="143"/>
-      <c r="R1502" s="143"/>
-      <c r="S1502" s="143"/>
-      <c r="T1502" s="143"/>
-      <c r="U1502" s="143"/>
-      <c r="V1502" s="143"/>
-      <c r="W1502" s="143"/>
-      <c r="X1502" s="143"/>
-      <c r="Y1502" s="143"/>
-      <c r="Z1502" s="143"/>
-      <c r="AA1502" s="143"/>
-      <c r="AB1502" s="143"/>
-      <c r="AC1502" s="143"/>
-      <c r="AD1502" s="143"/>
-      <c r="AE1502" s="143"/>
-      <c r="AF1502" s="143"/>
-      <c r="AG1502" s="143"/>
-      <c r="AH1502" s="143"/>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1502" s="142"/>
+      <c r="C1502" s="142"/>
+      <c r="D1502" s="142"/>
+      <c r="E1502" s="142"/>
+      <c r="F1502" s="142"/>
+      <c r="G1502" s="142"/>
+      <c r="H1502" s="142"/>
+      <c r="I1502" s="142"/>
+      <c r="J1502" s="142"/>
+      <c r="K1502" s="142"/>
+      <c r="L1502" s="142"/>
+      <c r="M1502" s="142"/>
+      <c r="N1502" s="142"/>
+      <c r="O1502" s="142"/>
+      <c r="P1502" s="142"/>
+      <c r="Q1502" s="142"/>
+      <c r="R1502" s="142"/>
+      <c r="S1502" s="142"/>
+      <c r="T1502" s="142"/>
+      <c r="U1502" s="142"/>
+      <c r="V1502" s="142"/>
+      <c r="W1502" s="142"/>
+      <c r="X1502" s="142"/>
+      <c r="Y1502" s="142"/>
+      <c r="Z1502" s="142"/>
+      <c r="AA1502" s="142"/>
+      <c r="AB1502" s="142"/>
+      <c r="AC1502" s="142"/>
+      <c r="AD1502" s="142"/>
+      <c r="AE1502" s="142"/>
+      <c r="AF1502" s="142"/>
+      <c r="AG1502" s="142"/>
+      <c r="AH1502" s="142"/>
     </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1">
-      <c r="B1604" s="143"/>
-      <c r="C1604" s="143"/>
-      <c r="D1604" s="143"/>
-      <c r="E1604" s="143"/>
-      <c r="F1604" s="143"/>
-      <c r="G1604" s="143"/>
-      <c r="H1604" s="143"/>
-      <c r="I1604" s="143"/>
-      <c r="J1604" s="143"/>
-      <c r="K1604" s="143"/>
-      <c r="L1604" s="143"/>
-      <c r="M1604" s="143"/>
-      <c r="N1604" s="143"/>
-      <c r="O1604" s="143"/>
-      <c r="P1604" s="143"/>
-      <c r="Q1604" s="143"/>
-      <c r="R1604" s="143"/>
-      <c r="S1604" s="143"/>
-      <c r="T1604" s="143"/>
-      <c r="U1604" s="143"/>
-      <c r="V1604" s="143"/>
-      <c r="W1604" s="143"/>
-      <c r="X1604" s="143"/>
-      <c r="Y1604" s="143"/>
-      <c r="Z1604" s="143"/>
-      <c r="AA1604" s="143"/>
-      <c r="AB1604" s="143"/>
-      <c r="AC1604" s="143"/>
-      <c r="AD1604" s="143"/>
-      <c r="AE1604" s="143"/>
-      <c r="AF1604" s="143"/>
-      <c r="AG1604" s="143"/>
-      <c r="AH1604" s="143"/>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1604" s="142"/>
+      <c r="C1604" s="142"/>
+      <c r="D1604" s="142"/>
+      <c r="E1604" s="142"/>
+      <c r="F1604" s="142"/>
+      <c r="G1604" s="142"/>
+      <c r="H1604" s="142"/>
+      <c r="I1604" s="142"/>
+      <c r="J1604" s="142"/>
+      <c r="K1604" s="142"/>
+      <c r="L1604" s="142"/>
+      <c r="M1604" s="142"/>
+      <c r="N1604" s="142"/>
+      <c r="O1604" s="142"/>
+      <c r="P1604" s="142"/>
+      <c r="Q1604" s="142"/>
+      <c r="R1604" s="142"/>
+      <c r="S1604" s="142"/>
+      <c r="T1604" s="142"/>
+      <c r="U1604" s="142"/>
+      <c r="V1604" s="142"/>
+      <c r="W1604" s="142"/>
+      <c r="X1604" s="142"/>
+      <c r="Y1604" s="142"/>
+      <c r="Z1604" s="142"/>
+      <c r="AA1604" s="142"/>
+      <c r="AB1604" s="142"/>
+      <c r="AC1604" s="142"/>
+      <c r="AD1604" s="142"/>
+      <c r="AE1604" s="142"/>
+      <c r="AF1604" s="142"/>
+      <c r="AG1604" s="142"/>
+      <c r="AH1604" s="142"/>
     </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1">
-      <c r="B1698" s="143"/>
-      <c r="C1698" s="143"/>
-      <c r="D1698" s="143"/>
-      <c r="E1698" s="143"/>
-      <c r="F1698" s="143"/>
-      <c r="G1698" s="143"/>
-      <c r="H1698" s="143"/>
-      <c r="I1698" s="143"/>
-      <c r="J1698" s="143"/>
-      <c r="K1698" s="143"/>
-      <c r="L1698" s="143"/>
-      <c r="M1698" s="143"/>
-      <c r="N1698" s="143"/>
-      <c r="O1698" s="143"/>
-      <c r="P1698" s="143"/>
-      <c r="Q1698" s="143"/>
-      <c r="R1698" s="143"/>
-      <c r="S1698" s="143"/>
-      <c r="T1698" s="143"/>
-      <c r="U1698" s="143"/>
-      <c r="V1698" s="143"/>
-      <c r="W1698" s="143"/>
-      <c r="X1698" s="143"/>
-      <c r="Y1698" s="143"/>
-      <c r="Z1698" s="143"/>
-      <c r="AA1698" s="143"/>
-      <c r="AB1698" s="143"/>
-      <c r="AC1698" s="143"/>
-      <c r="AD1698" s="143"/>
-      <c r="AE1698" s="143"/>
-      <c r="AF1698" s="143"/>
-      <c r="AG1698" s="143"/>
-      <c r="AH1698" s="143"/>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1698" s="142"/>
+      <c r="C1698" s="142"/>
+      <c r="D1698" s="142"/>
+      <c r="E1698" s="142"/>
+      <c r="F1698" s="142"/>
+      <c r="G1698" s="142"/>
+      <c r="H1698" s="142"/>
+      <c r="I1698" s="142"/>
+      <c r="J1698" s="142"/>
+      <c r="K1698" s="142"/>
+      <c r="L1698" s="142"/>
+      <c r="M1698" s="142"/>
+      <c r="N1698" s="142"/>
+      <c r="O1698" s="142"/>
+      <c r="P1698" s="142"/>
+      <c r="Q1698" s="142"/>
+      <c r="R1698" s="142"/>
+      <c r="S1698" s="142"/>
+      <c r="T1698" s="142"/>
+      <c r="U1698" s="142"/>
+      <c r="V1698" s="142"/>
+      <c r="W1698" s="142"/>
+      <c r="X1698" s="142"/>
+      <c r="Y1698" s="142"/>
+      <c r="Z1698" s="142"/>
+      <c r="AA1698" s="142"/>
+      <c r="AB1698" s="142"/>
+      <c r="AC1698" s="142"/>
+      <c r="AD1698" s="142"/>
+      <c r="AE1698" s="142"/>
+      <c r="AF1698" s="142"/>
+      <c r="AG1698" s="142"/>
+      <c r="AH1698" s="142"/>
     </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1">
-      <c r="B1945" s="143"/>
-      <c r="C1945" s="143"/>
-      <c r="D1945" s="143"/>
-      <c r="E1945" s="143"/>
-      <c r="F1945" s="143"/>
-      <c r="G1945" s="143"/>
-      <c r="H1945" s="143"/>
-      <c r="I1945" s="143"/>
-      <c r="J1945" s="143"/>
-      <c r="K1945" s="143"/>
-      <c r="L1945" s="143"/>
-      <c r="M1945" s="143"/>
-      <c r="N1945" s="143"/>
-      <c r="O1945" s="143"/>
-      <c r="P1945" s="143"/>
-      <c r="Q1945" s="143"/>
-      <c r="R1945" s="143"/>
-      <c r="S1945" s="143"/>
-      <c r="T1945" s="143"/>
-      <c r="U1945" s="143"/>
-      <c r="V1945" s="143"/>
-      <c r="W1945" s="143"/>
-      <c r="X1945" s="143"/>
-      <c r="Y1945" s="143"/>
-      <c r="Z1945" s="143"/>
-      <c r="AA1945" s="143"/>
-      <c r="AB1945" s="143"/>
-      <c r="AC1945" s="143"/>
-      <c r="AD1945" s="143"/>
-      <c r="AE1945" s="143"/>
-      <c r="AF1945" s="143"/>
-      <c r="AG1945" s="143"/>
-      <c r="AH1945" s="143"/>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1945" s="142"/>
+      <c r="C1945" s="142"/>
+      <c r="D1945" s="142"/>
+      <c r="E1945" s="142"/>
+      <c r="F1945" s="142"/>
+      <c r="G1945" s="142"/>
+      <c r="H1945" s="142"/>
+      <c r="I1945" s="142"/>
+      <c r="J1945" s="142"/>
+      <c r="K1945" s="142"/>
+      <c r="L1945" s="142"/>
+      <c r="M1945" s="142"/>
+      <c r="N1945" s="142"/>
+      <c r="O1945" s="142"/>
+      <c r="P1945" s="142"/>
+      <c r="Q1945" s="142"/>
+      <c r="R1945" s="142"/>
+      <c r="S1945" s="142"/>
+      <c r="T1945" s="142"/>
+      <c r="U1945" s="142"/>
+      <c r="V1945" s="142"/>
+      <c r="W1945" s="142"/>
+      <c r="X1945" s="142"/>
+      <c r="Y1945" s="142"/>
+      <c r="Z1945" s="142"/>
+      <c r="AA1945" s="142"/>
+      <c r="AB1945" s="142"/>
+      <c r="AC1945" s="142"/>
+      <c r="AD1945" s="142"/>
+      <c r="AE1945" s="142"/>
+      <c r="AF1945" s="142"/>
+      <c r="AG1945" s="142"/>
+      <c r="AH1945" s="142"/>
     </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1">
-      <c r="B2031" s="143"/>
-      <c r="C2031" s="143"/>
-      <c r="D2031" s="143"/>
-      <c r="E2031" s="143"/>
-      <c r="F2031" s="143"/>
-      <c r="G2031" s="143"/>
-      <c r="H2031" s="143"/>
-      <c r="I2031" s="143"/>
-      <c r="J2031" s="143"/>
-      <c r="K2031" s="143"/>
-      <c r="L2031" s="143"/>
-      <c r="M2031" s="143"/>
-      <c r="N2031" s="143"/>
-      <c r="O2031" s="143"/>
-      <c r="P2031" s="143"/>
-      <c r="Q2031" s="143"/>
-      <c r="R2031" s="143"/>
-      <c r="S2031" s="143"/>
-      <c r="T2031" s="143"/>
-      <c r="U2031" s="143"/>
-      <c r="V2031" s="143"/>
-      <c r="W2031" s="143"/>
-      <c r="X2031" s="143"/>
-      <c r="Y2031" s="143"/>
-      <c r="Z2031" s="143"/>
-      <c r="AA2031" s="143"/>
-      <c r="AB2031" s="143"/>
-      <c r="AC2031" s="143"/>
-      <c r="AD2031" s="143"/>
-      <c r="AE2031" s="143"/>
-      <c r="AF2031" s="143"/>
-      <c r="AG2031" s="143"/>
-      <c r="AH2031" s="143"/>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2031" s="142"/>
+      <c r="C2031" s="142"/>
+      <c r="D2031" s="142"/>
+      <c r="E2031" s="142"/>
+      <c r="F2031" s="142"/>
+      <c r="G2031" s="142"/>
+      <c r="H2031" s="142"/>
+      <c r="I2031" s="142"/>
+      <c r="J2031" s="142"/>
+      <c r="K2031" s="142"/>
+      <c r="L2031" s="142"/>
+      <c r="M2031" s="142"/>
+      <c r="N2031" s="142"/>
+      <c r="O2031" s="142"/>
+      <c r="P2031" s="142"/>
+      <c r="Q2031" s="142"/>
+      <c r="R2031" s="142"/>
+      <c r="S2031" s="142"/>
+      <c r="T2031" s="142"/>
+      <c r="U2031" s="142"/>
+      <c r="V2031" s="142"/>
+      <c r="W2031" s="142"/>
+      <c r="X2031" s="142"/>
+      <c r="Y2031" s="142"/>
+      <c r="Z2031" s="142"/>
+      <c r="AA2031" s="142"/>
+      <c r="AB2031" s="142"/>
+      <c r="AC2031" s="142"/>
+      <c r="AD2031" s="142"/>
+      <c r="AE2031" s="142"/>
+      <c r="AF2031" s="142"/>
+      <c r="AG2031" s="142"/>
+      <c r="AH2031" s="142"/>
     </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1">
-      <c r="B2153" s="143"/>
-      <c r="C2153" s="143"/>
-      <c r="D2153" s="143"/>
-      <c r="E2153" s="143"/>
-      <c r="F2153" s="143"/>
-      <c r="G2153" s="143"/>
-      <c r="H2153" s="143"/>
-      <c r="I2153" s="143"/>
-      <c r="J2153" s="143"/>
-      <c r="K2153" s="143"/>
-      <c r="L2153" s="143"/>
-      <c r="M2153" s="143"/>
-      <c r="N2153" s="143"/>
-      <c r="O2153" s="143"/>
-      <c r="P2153" s="143"/>
-      <c r="Q2153" s="143"/>
-      <c r="R2153" s="143"/>
-      <c r="S2153" s="143"/>
-      <c r="T2153" s="143"/>
-      <c r="U2153" s="143"/>
-      <c r="V2153" s="143"/>
-      <c r="W2153" s="143"/>
-      <c r="X2153" s="143"/>
-      <c r="Y2153" s="143"/>
-      <c r="Z2153" s="143"/>
-      <c r="AA2153" s="143"/>
-      <c r="AB2153" s="143"/>
-      <c r="AC2153" s="143"/>
-      <c r="AD2153" s="143"/>
-      <c r="AE2153" s="143"/>
-      <c r="AF2153" s="143"/>
-      <c r="AG2153" s="143"/>
-      <c r="AH2153" s="143"/>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2153" s="142"/>
+      <c r="C2153" s="142"/>
+      <c r="D2153" s="142"/>
+      <c r="E2153" s="142"/>
+      <c r="F2153" s="142"/>
+      <c r="G2153" s="142"/>
+      <c r="H2153" s="142"/>
+      <c r="I2153" s="142"/>
+      <c r="J2153" s="142"/>
+      <c r="K2153" s="142"/>
+      <c r="L2153" s="142"/>
+      <c r="M2153" s="142"/>
+      <c r="N2153" s="142"/>
+      <c r="O2153" s="142"/>
+      <c r="P2153" s="142"/>
+      <c r="Q2153" s="142"/>
+      <c r="R2153" s="142"/>
+      <c r="S2153" s="142"/>
+      <c r="T2153" s="142"/>
+      <c r="U2153" s="142"/>
+      <c r="V2153" s="142"/>
+      <c r="W2153" s="142"/>
+      <c r="X2153" s="142"/>
+      <c r="Y2153" s="142"/>
+      <c r="Z2153" s="142"/>
+      <c r="AA2153" s="142"/>
+      <c r="AB2153" s="142"/>
+      <c r="AC2153" s="142"/>
+      <c r="AD2153" s="142"/>
+      <c r="AE2153" s="142"/>
+      <c r="AF2153" s="142"/>
+      <c r="AG2153" s="142"/>
+      <c r="AH2153" s="142"/>
     </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1">
-      <c r="B2317" s="143"/>
-      <c r="C2317" s="143"/>
-      <c r="D2317" s="143"/>
-      <c r="E2317" s="143"/>
-      <c r="F2317" s="143"/>
-      <c r="G2317" s="143"/>
-      <c r="H2317" s="143"/>
-      <c r="I2317" s="143"/>
-      <c r="J2317" s="143"/>
-      <c r="K2317" s="143"/>
-      <c r="L2317" s="143"/>
-      <c r="M2317" s="143"/>
-      <c r="N2317" s="143"/>
-      <c r="O2317" s="143"/>
-      <c r="P2317" s="143"/>
-      <c r="Q2317" s="143"/>
-      <c r="R2317" s="143"/>
-      <c r="S2317" s="143"/>
-      <c r="T2317" s="143"/>
-      <c r="U2317" s="143"/>
-      <c r="V2317" s="143"/>
-      <c r="W2317" s="143"/>
-      <c r="X2317" s="143"/>
-      <c r="Y2317" s="143"/>
-      <c r="Z2317" s="143"/>
-      <c r="AA2317" s="143"/>
-      <c r="AB2317" s="143"/>
-      <c r="AC2317" s="143"/>
-      <c r="AD2317" s="143"/>
-      <c r="AE2317" s="143"/>
-      <c r="AF2317" s="143"/>
-      <c r="AG2317" s="143"/>
-      <c r="AH2317" s="143"/>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2317" s="142"/>
+      <c r="C2317" s="142"/>
+      <c r="D2317" s="142"/>
+      <c r="E2317" s="142"/>
+      <c r="F2317" s="142"/>
+      <c r="G2317" s="142"/>
+      <c r="H2317" s="142"/>
+      <c r="I2317" s="142"/>
+      <c r="J2317" s="142"/>
+      <c r="K2317" s="142"/>
+      <c r="L2317" s="142"/>
+      <c r="M2317" s="142"/>
+      <c r="N2317" s="142"/>
+      <c r="O2317" s="142"/>
+      <c r="P2317" s="142"/>
+      <c r="Q2317" s="142"/>
+      <c r="R2317" s="142"/>
+      <c r="S2317" s="142"/>
+      <c r="T2317" s="142"/>
+      <c r="U2317" s="142"/>
+      <c r="V2317" s="142"/>
+      <c r="W2317" s="142"/>
+      <c r="X2317" s="142"/>
+      <c r="Y2317" s="142"/>
+      <c r="Z2317" s="142"/>
+      <c r="AA2317" s="142"/>
+      <c r="AB2317" s="142"/>
+      <c r="AC2317" s="142"/>
+      <c r="AD2317" s="142"/>
+      <c r="AE2317" s="142"/>
+      <c r="AF2317" s="142"/>
+      <c r="AG2317" s="142"/>
+      <c r="AH2317" s="142"/>
     </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1">
-      <c r="B2419" s="143"/>
-      <c r="C2419" s="143"/>
-      <c r="D2419" s="143"/>
-      <c r="E2419" s="143"/>
-      <c r="F2419" s="143"/>
-      <c r="G2419" s="143"/>
-      <c r="H2419" s="143"/>
-      <c r="I2419" s="143"/>
-      <c r="J2419" s="143"/>
-      <c r="K2419" s="143"/>
-      <c r="L2419" s="143"/>
-      <c r="M2419" s="143"/>
-      <c r="N2419" s="143"/>
-      <c r="O2419" s="143"/>
-      <c r="P2419" s="143"/>
-      <c r="Q2419" s="143"/>
-      <c r="R2419" s="143"/>
-      <c r="S2419" s="143"/>
-      <c r="T2419" s="143"/>
-      <c r="U2419" s="143"/>
-      <c r="V2419" s="143"/>
-      <c r="W2419" s="143"/>
-      <c r="X2419" s="143"/>
-      <c r="Y2419" s="143"/>
-      <c r="Z2419" s="143"/>
-      <c r="AA2419" s="143"/>
-      <c r="AB2419" s="143"/>
-      <c r="AC2419" s="143"/>
-      <c r="AD2419" s="143"/>
-      <c r="AE2419" s="143"/>
-      <c r="AF2419" s="143"/>
-      <c r="AG2419" s="143"/>
-      <c r="AH2419" s="143"/>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2419" s="142"/>
+      <c r="C2419" s="142"/>
+      <c r="D2419" s="142"/>
+      <c r="E2419" s="142"/>
+      <c r="F2419" s="142"/>
+      <c r="G2419" s="142"/>
+      <c r="H2419" s="142"/>
+      <c r="I2419" s="142"/>
+      <c r="J2419" s="142"/>
+      <c r="K2419" s="142"/>
+      <c r="L2419" s="142"/>
+      <c r="M2419" s="142"/>
+      <c r="N2419" s="142"/>
+      <c r="O2419" s="142"/>
+      <c r="P2419" s="142"/>
+      <c r="Q2419" s="142"/>
+      <c r="R2419" s="142"/>
+      <c r="S2419" s="142"/>
+      <c r="T2419" s="142"/>
+      <c r="U2419" s="142"/>
+      <c r="V2419" s="142"/>
+      <c r="W2419" s="142"/>
+      <c r="X2419" s="142"/>
+      <c r="Y2419" s="142"/>
+      <c r="Z2419" s="142"/>
+      <c r="AA2419" s="142"/>
+      <c r="AB2419" s="142"/>
+      <c r="AC2419" s="142"/>
+      <c r="AD2419" s="142"/>
+      <c r="AE2419" s="142"/>
+      <c r="AF2419" s="142"/>
+      <c r="AG2419" s="142"/>
+      <c r="AH2419" s="142"/>
     </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1">
-      <c r="B2509" s="143"/>
-      <c r="C2509" s="143"/>
-      <c r="D2509" s="143"/>
-      <c r="E2509" s="143"/>
-      <c r="F2509" s="143"/>
-      <c r="G2509" s="143"/>
-      <c r="H2509" s="143"/>
-      <c r="I2509" s="143"/>
-      <c r="J2509" s="143"/>
-      <c r="K2509" s="143"/>
-      <c r="L2509" s="143"/>
-      <c r="M2509" s="143"/>
-      <c r="N2509" s="143"/>
-      <c r="O2509" s="143"/>
-      <c r="P2509" s="143"/>
-      <c r="Q2509" s="143"/>
-      <c r="R2509" s="143"/>
-      <c r="S2509" s="143"/>
-      <c r="T2509" s="143"/>
-      <c r="U2509" s="143"/>
-      <c r="V2509" s="143"/>
-      <c r="W2509" s="143"/>
-      <c r="X2509" s="143"/>
-      <c r="Y2509" s="143"/>
-      <c r="Z2509" s="143"/>
-      <c r="AA2509" s="143"/>
-      <c r="AB2509" s="143"/>
-      <c r="AC2509" s="143"/>
-      <c r="AD2509" s="143"/>
-      <c r="AE2509" s="143"/>
-      <c r="AF2509" s="143"/>
-      <c r="AG2509" s="143"/>
-      <c r="AH2509" s="143"/>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2509" s="142"/>
+      <c r="C2509" s="142"/>
+      <c r="D2509" s="142"/>
+      <c r="E2509" s="142"/>
+      <c r="F2509" s="142"/>
+      <c r="G2509" s="142"/>
+      <c r="H2509" s="142"/>
+      <c r="I2509" s="142"/>
+      <c r="J2509" s="142"/>
+      <c r="K2509" s="142"/>
+      <c r="L2509" s="142"/>
+      <c r="M2509" s="142"/>
+      <c r="N2509" s="142"/>
+      <c r="O2509" s="142"/>
+      <c r="P2509" s="142"/>
+      <c r="Q2509" s="142"/>
+      <c r="R2509" s="142"/>
+      <c r="S2509" s="142"/>
+      <c r="T2509" s="142"/>
+      <c r="U2509" s="142"/>
+      <c r="V2509" s="142"/>
+      <c r="W2509" s="142"/>
+      <c r="X2509" s="142"/>
+      <c r="Y2509" s="142"/>
+      <c r="Z2509" s="142"/>
+      <c r="AA2509" s="142"/>
+      <c r="AB2509" s="142"/>
+      <c r="AC2509" s="142"/>
+      <c r="AD2509" s="142"/>
+      <c r="AE2509" s="142"/>
+      <c r="AF2509" s="142"/>
+      <c r="AG2509" s="142"/>
+      <c r="AH2509" s="142"/>
     </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1">
-      <c r="B2598" s="143"/>
-      <c r="C2598" s="143"/>
-      <c r="D2598" s="143"/>
-      <c r="E2598" s="143"/>
-      <c r="F2598" s="143"/>
-      <c r="G2598" s="143"/>
-      <c r="H2598" s="143"/>
-      <c r="I2598" s="143"/>
-      <c r="J2598" s="143"/>
-      <c r="K2598" s="143"/>
-      <c r="L2598" s="143"/>
-      <c r="M2598" s="143"/>
-      <c r="N2598" s="143"/>
-      <c r="O2598" s="143"/>
-      <c r="P2598" s="143"/>
-      <c r="Q2598" s="143"/>
-      <c r="R2598" s="143"/>
-      <c r="S2598" s="143"/>
-      <c r="T2598" s="143"/>
-      <c r="U2598" s="143"/>
-      <c r="V2598" s="143"/>
-      <c r="W2598" s="143"/>
-      <c r="X2598" s="143"/>
-      <c r="Y2598" s="143"/>
-      <c r="Z2598" s="143"/>
-      <c r="AA2598" s="143"/>
-      <c r="AB2598" s="143"/>
-      <c r="AC2598" s="143"/>
-      <c r="AD2598" s="143"/>
-      <c r="AE2598" s="143"/>
-      <c r="AF2598" s="143"/>
-      <c r="AG2598" s="143"/>
-      <c r="AH2598" s="143"/>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2598" s="142"/>
+      <c r="C2598" s="142"/>
+      <c r="D2598" s="142"/>
+      <c r="E2598" s="142"/>
+      <c r="F2598" s="142"/>
+      <c r="G2598" s="142"/>
+      <c r="H2598" s="142"/>
+      <c r="I2598" s="142"/>
+      <c r="J2598" s="142"/>
+      <c r="K2598" s="142"/>
+      <c r="L2598" s="142"/>
+      <c r="M2598" s="142"/>
+      <c r="N2598" s="142"/>
+      <c r="O2598" s="142"/>
+      <c r="P2598" s="142"/>
+      <c r="Q2598" s="142"/>
+      <c r="R2598" s="142"/>
+      <c r="S2598" s="142"/>
+      <c r="T2598" s="142"/>
+      <c r="U2598" s="142"/>
+      <c r="V2598" s="142"/>
+      <c r="W2598" s="142"/>
+      <c r="X2598" s="142"/>
+      <c r="Y2598" s="142"/>
+      <c r="Z2598" s="142"/>
+      <c r="AA2598" s="142"/>
+      <c r="AB2598" s="142"/>
+      <c r="AC2598" s="142"/>
+      <c r="AD2598" s="142"/>
+      <c r="AE2598" s="142"/>
+      <c r="AF2598" s="142"/>
+      <c r="AG2598" s="142"/>
+      <c r="AH2598" s="142"/>
     </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1">
-      <c r="B2719" s="143"/>
-      <c r="C2719" s="143"/>
-      <c r="D2719" s="143"/>
-      <c r="E2719" s="143"/>
-      <c r="F2719" s="143"/>
-      <c r="G2719" s="143"/>
-      <c r="H2719" s="143"/>
-      <c r="I2719" s="143"/>
-      <c r="J2719" s="143"/>
-      <c r="K2719" s="143"/>
-      <c r="L2719" s="143"/>
-      <c r="M2719" s="143"/>
-      <c r="N2719" s="143"/>
-      <c r="O2719" s="143"/>
-      <c r="P2719" s="143"/>
-      <c r="Q2719" s="143"/>
-      <c r="R2719" s="143"/>
-      <c r="S2719" s="143"/>
-      <c r="T2719" s="143"/>
-      <c r="U2719" s="143"/>
-      <c r="V2719" s="143"/>
-      <c r="W2719" s="143"/>
-      <c r="X2719" s="143"/>
-      <c r="Y2719" s="143"/>
-      <c r="Z2719" s="143"/>
-      <c r="AA2719" s="143"/>
-      <c r="AB2719" s="143"/>
-      <c r="AC2719" s="143"/>
-      <c r="AD2719" s="143"/>
-      <c r="AE2719" s="143"/>
-      <c r="AF2719" s="143"/>
-      <c r="AG2719" s="143"/>
-      <c r="AH2719" s="143"/>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2719" s="142"/>
+      <c r="C2719" s="142"/>
+      <c r="D2719" s="142"/>
+      <c r="E2719" s="142"/>
+      <c r="F2719" s="142"/>
+      <c r="G2719" s="142"/>
+      <c r="H2719" s="142"/>
+      <c r="I2719" s="142"/>
+      <c r="J2719" s="142"/>
+      <c r="K2719" s="142"/>
+      <c r="L2719" s="142"/>
+      <c r="M2719" s="142"/>
+      <c r="N2719" s="142"/>
+      <c r="O2719" s="142"/>
+      <c r="P2719" s="142"/>
+      <c r="Q2719" s="142"/>
+      <c r="R2719" s="142"/>
+      <c r="S2719" s="142"/>
+      <c r="T2719" s="142"/>
+      <c r="U2719" s="142"/>
+      <c r="V2719" s="142"/>
+      <c r="W2719" s="142"/>
+      <c r="X2719" s="142"/>
+      <c r="Y2719" s="142"/>
+      <c r="Z2719" s="142"/>
+      <c r="AA2719" s="142"/>
+      <c r="AB2719" s="142"/>
+      <c r="AC2719" s="142"/>
+      <c r="AD2719" s="142"/>
+      <c r="AE2719" s="142"/>
+      <c r="AF2719" s="142"/>
+      <c r="AG2719" s="142"/>
+      <c r="AH2719" s="142"/>
     </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1">
-      <c r="B2837" s="143"/>
-      <c r="C2837" s="143"/>
-      <c r="D2837" s="143"/>
-      <c r="E2837" s="143"/>
-      <c r="F2837" s="143"/>
-      <c r="G2837" s="143"/>
-      <c r="H2837" s="143"/>
-      <c r="I2837" s="143"/>
-      <c r="J2837" s="143"/>
-      <c r="K2837" s="143"/>
-      <c r="L2837" s="143"/>
-      <c r="M2837" s="143"/>
-      <c r="N2837" s="143"/>
-      <c r="O2837" s="143"/>
-      <c r="P2837" s="143"/>
-      <c r="Q2837" s="143"/>
-      <c r="R2837" s="143"/>
-      <c r="S2837" s="143"/>
-      <c r="T2837" s="143"/>
-      <c r="U2837" s="143"/>
-      <c r="V2837" s="143"/>
-      <c r="W2837" s="143"/>
-      <c r="X2837" s="143"/>
-      <c r="Y2837" s="143"/>
-      <c r="Z2837" s="143"/>
-      <c r="AA2837" s="143"/>
-      <c r="AB2837" s="143"/>
-      <c r="AC2837" s="143"/>
-      <c r="AD2837" s="143"/>
-      <c r="AE2837" s="143"/>
-      <c r="AF2837" s="143"/>
-      <c r="AG2837" s="143"/>
-      <c r="AH2837" s="143"/>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2837" s="142"/>
+      <c r="C2837" s="142"/>
+      <c r="D2837" s="142"/>
+      <c r="E2837" s="142"/>
+      <c r="F2837" s="142"/>
+      <c r="G2837" s="142"/>
+      <c r="H2837" s="142"/>
+      <c r="I2837" s="142"/>
+      <c r="J2837" s="142"/>
+      <c r="K2837" s="142"/>
+      <c r="L2837" s="142"/>
+      <c r="M2837" s="142"/>
+      <c r="N2837" s="142"/>
+      <c r="O2837" s="142"/>
+      <c r="P2837" s="142"/>
+      <c r="Q2837" s="142"/>
+      <c r="R2837" s="142"/>
+      <c r="S2837" s="142"/>
+      <c r="T2837" s="142"/>
+      <c r="U2837" s="142"/>
+      <c r="V2837" s="142"/>
+      <c r="W2837" s="142"/>
+      <c r="X2837" s="142"/>
+      <c r="Y2837" s="142"/>
+      <c r="Z2837" s="142"/>
+      <c r="AA2837" s="142"/>
+      <c r="AB2837" s="142"/>
+      <c r="AC2837" s="142"/>
+      <c r="AD2837" s="142"/>
+      <c r="AE2837" s="142"/>
+      <c r="AF2837" s="142"/>
+      <c r="AG2837" s="142"/>
+      <c r="AH2837" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B2719:AH2719"/>
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B1698:AH1698"/>
     <mergeCell ref="B87:AG87"/>
     <mergeCell ref="B112:AH112"/>
@@ -84639,6 +84629,15 @@
     <mergeCell ref="B1390:AH1390"/>
     <mergeCell ref="B1502:AH1502"/>
     <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -84651,13 +84650,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.5703125" style="38" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>62</v>
       </c>
@@ -84786,12 +84785,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1">
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1">
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
@@ -84924,12 +84923,12 @@
       </c>
       <c r="AH3" s="19"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>125</v>
       </c>
@@ -85062,7 +85061,7 @@
       </c>
       <c r="AH6" s="19"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>176</v>
       </c>
@@ -85189,7 +85188,7 @@
       </c>
       <c r="AH8" s="28"/>
     </row>
-    <row r="9" spans="1:34" ht="30.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:34" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>177</v>
       </c>
@@ -85315,7 +85314,7 @@
         <v>15.95382699999999</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -85441,7 +85440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="30.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:34" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -85483,10 +85482,10 @@
       <c r="AF11" s="37"/>
       <c r="AG11" s="37"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H16" s="28"/>
     </row>
   </sheetData>
@@ -85501,7 +85500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -85515,12 +85514,12 @@
     <col min="13" max="13" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="43">
         <v>44197</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -85528,7 +85527,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -85536,12 +85535,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M4" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>183</v>
       </c>
@@ -85549,7 +85548,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>185</v>
       </c>
@@ -85578,7 +85577,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -85601,7 +85600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -85627,7 +85626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -85639,7 +85638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -85657,7 +85656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -85681,7 +85680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -85704,7 +85703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -85716,7 +85715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -85729,7 +85728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -85742,7 +85741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -85763,7 +85762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -85784,7 +85783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -85813,7 +85812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -85830,7 +85829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -85848,7 +85847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -85862,7 +85861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -85888,7 +85887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -85901,7 +85900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -85914,7 +85913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>186</v>
       </c>
@@ -85943,15 +85942,15 @@
         <v>199.6</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M28" s="42"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>44562</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -85959,7 +85958,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -85967,12 +85966,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M32" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>183</v>
       </c>
@@ -85980,7 +85979,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>185</v>
       </c>
@@ -86009,7 +86008,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -86036,7 +86035,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -86065,7 +86064,7 @@
         <v>hydro</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -86084,7 +86083,7 @@
         <v>geothermal</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
@@ -86103,7 +86102,7 @@
         <v>biomass</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -86130,7 +86129,7 @@
         <v>natural gas combined cycle</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
@@ -86157,7 +86156,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -86178,7 +86177,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -86197,7 +86196,7 @@
         <v>natural gas steam turbine</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -86218,7 +86217,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -86243,7 +86242,7 @@
         <v>nuclear</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -86266,7 +86265,7 @@
         <v>offshore wind</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -86295,7 +86294,7 @@
         <v>onshore wind</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -86316,7 +86315,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -86337,7 +86336,7 @@
         <v>biomass</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -86356,7 +86355,7 @@
         <v>petroleum</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>14</v>
       </c>
@@ -86387,7 +86386,7 @@
         <v>solar PV</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -86406,7 +86405,7 @@
         <v>solar thermal</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>186</v>
       </c>
@@ -86436,20 +86435,20 @@
       </c>
       <c r="M52" s="41"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M53" s="41"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M56" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>183</v>
       </c>
@@ -86457,7 +86456,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>185</v>
       </c>
@@ -86486,7 +86485,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -86513,7 +86512,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
@@ -86540,7 +86539,7 @@
         <v>hydro</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>15</v>
       </c>
@@ -86555,7 +86554,7 @@
         <v>geothermal</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>16</v>
       </c>
@@ -86570,7 +86569,7 @@
         <v>biomass</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
@@ -86594,7 +86593,7 @@
         <v>natural gas combined cycle</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
@@ -86618,7 +86617,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
@@ -86636,7 +86635,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
@@ -86654,7 +86653,7 @@
         <v>natural gas steam turbine</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
@@ -86666,7 +86665,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>12</v>
       </c>
@@ -86687,7 +86686,7 @@
         <v>nuclear</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>23</v>
       </c>
@@ -86714,7 +86713,7 @@
         <v>offshore wind</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -86744,7 +86743,7 @@
         <v>onshore wind</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>19</v>
       </c>
@@ -86756,7 +86755,7 @@
         <v>natural gas peaker</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
@@ -86771,7 +86770,7 @@
         <v>biomass</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
@@ -86783,7 +86782,7 @@
         <v>petroleum</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>14</v>
       </c>
@@ -86816,7 +86815,7 @@
         <v>solar PV</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>22</v>
       </c>
@@ -86828,7 +86827,7 @@
         <v>solar thermal</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>18</v>
       </c>
@@ -86840,7 +86839,7 @@
         <v>biomass</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M77" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -86859,14 +86858,14 @@
       <selection activeCell="AC45" sqref="AC45:AG45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.28515625" style="99" customWidth="1"/>
     <col min="2" max="2" width="2" style="99" customWidth="1"/>
     <col min="3" max="8" width="8.42578125" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -86875,18 +86874,18 @@
       <c r="F1" s="49"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
     </row>
-    <row r="3" spans="1:14" ht="18">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -86894,32 +86893,32 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
     </row>
-    <row r="4" spans="1:14" ht="18">
-      <c r="A4" s="148" t="s">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
     </row>
-    <row r="5" spans="1:14" ht="18">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="49"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
@@ -86930,16 +86929,16 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="148"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -86948,7 +86947,7 @@
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>199</v>
       </c>
@@ -86957,7 +86956,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" thickBot="1">
+    <row r="10" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>201</v>
       </c>
@@ -86985,7 +86984,7 @@
       </c>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>202</v>
       </c>
@@ -87013,7 +87012,7 @@
       </c>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>203</v>
       </c>
@@ -87041,7 +87040,7 @@
       </c>
       <c r="J12" s="72"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>204</v>
       </c>
@@ -87069,7 +87068,7 @@
       </c>
       <c r="J13" s="75"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
         <v>205</v>
       </c>
@@ -87097,7 +87096,7 @@
       </c>
       <c r="J14" s="78"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
         <v>206</v>
       </c>
@@ -87125,7 +87124,7 @@
       </c>
       <c r="J15" s="78"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62"/>
       <c r="B16" s="62"/>
       <c r="C16" s="84"/>
@@ -87135,7 +87134,7 @@
       <c r="G16" s="84"/>
       <c r="H16" s="85"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" thickBot="1">
+    <row r="17" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>207</v>
       </c>
@@ -87163,7 +87162,7 @@
       </c>
       <c r="J17" s="60"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
         <v>208</v>
       </c>
@@ -87191,7 +87190,7 @@
       </c>
       <c r="J18" s="90"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62"/>
       <c r="B19" s="62"/>
       <c r="C19" s="91"/>
@@ -87201,7 +87200,7 @@
       <c r="G19" s="91"/>
       <c r="H19" s="92"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" thickBot="1">
+    <row r="20" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>209</v>
       </c>
@@ -87229,7 +87228,7 @@
       </c>
       <c r="J20" s="60"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>210</v>
       </c>
@@ -87257,7 +87256,7 @@
       </c>
       <c r="J21" s="95"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>211</v>
       </c>
@@ -87271,7 +87270,7 @@
       <c r="I22" s="97"/>
       <c r="J22" s="95"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="98" t="s">
         <v>212</v>
       </c>
@@ -87298,7 +87297,7 @@
       </c>
       <c r="J23" s="95"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>213</v>
       </c>
@@ -87326,7 +87325,7 @@
       </c>
       <c r="J24" s="95"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>214</v>
       </c>
@@ -87340,7 +87339,7 @@
       <c r="I25" s="94"/>
       <c r="J25" s="95"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="100" t="s">
         <v>215</v>
       </c>
@@ -87368,7 +87367,7 @@
       </c>
       <c r="J26" s="95"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="98" t="s">
         <v>216</v>
       </c>
@@ -87387,7 +87386,7 @@
       <c r="I27" s="94"/>
       <c r="J27" s="95"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="100" t="s">
         <v>217</v>
       </c>
@@ -87415,7 +87414,7 @@
       </c>
       <c r="J28" s="95"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="s">
         <v>218</v>
       </c>
@@ -87436,7 +87435,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="95"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="100" t="s">
         <v>219</v>
       </c>
@@ -87464,7 +87463,7 @@
       </c>
       <c r="J30" s="95"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="102" t="s">
         <v>220</v>
       </c>
@@ -87492,7 +87491,7 @@
       </c>
       <c r="J31" s="95"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62"/>
       <c r="B32" s="62"/>
       <c r="C32" s="106"/>
@@ -87505,7 +87504,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="18.75" thickBot="1">
+    <row r="33" spans="1:33" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>221</v>
       </c>
@@ -87602,7 +87601,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>222</v>
       </c>
@@ -87630,7 +87629,7 @@
       </c>
       <c r="J34" s="109"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="68" t="s">
         <v>223</v>
       </c>
@@ -87658,7 +87657,7 @@
       </c>
       <c r="J35" s="109"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
         <v>224</v>
       </c>
@@ -87686,7 +87685,7 @@
       </c>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="100" t="s">
         <v>225</v>
       </c>
@@ -87714,7 +87713,7 @@
       </c>
       <c r="J37" s="109"/>
     </row>
-    <row r="38" spans="1:33" s="114" customFormat="1" ht="14.25">
+    <row r="38" spans="1:33" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="98" t="s">
         <v>226</v>
       </c>
@@ -87742,7 +87741,7 @@
       </c>
       <c r="J38" s="109"/>
     </row>
-    <row r="39" spans="1:33" s="114" customFormat="1" ht="14.25">
+    <row r="39" spans="1:33" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
         <v>227</v>
       </c>
@@ -87770,7 +87769,7 @@
       </c>
       <c r="J39" s="109"/>
     </row>
-    <row r="40" spans="1:33" s="114" customFormat="1" ht="14.25">
+    <row r="40" spans="1:33" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="98" t="s">
         <v>228</v>
       </c>
@@ -87798,7 +87797,7 @@
       </c>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:33" s="114" customFormat="1" ht="14.25">
+    <row r="41" spans="1:33" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
         <v>229</v>
       </c>
@@ -87826,7 +87825,7 @@
       </c>
       <c r="J41" s="109"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>230</v>
       </c>
@@ -87853,7 +87852,7 @@
       </c>
       <c r="J42" s="109"/>
     </row>
-    <row r="43" spans="1:33" s="114" customFormat="1" ht="14.25">
+    <row r="43" spans="1:33" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="100" t="s">
         <v>231</v>
       </c>
@@ -87881,7 +87880,7 @@
       </c>
       <c r="J43" s="109"/>
     </row>
-    <row r="44" spans="1:33" s="114" customFormat="1" ht="14.25">
+    <row r="44" spans="1:33" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="98" t="s">
         <v>232</v>
       </c>
@@ -87909,7 +87908,7 @@
       </c>
       <c r="J44" s="109"/>
     </row>
-    <row r="45" spans="1:33" s="114" customFormat="1" ht="14.25">
+    <row r="45" spans="1:33" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="100" t="s">
         <v>233</v>
       </c>
@@ -88029,7 +88028,7 @@
         <v>0.7420077610000001</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>234</v>
       </c>
@@ -88056,7 +88055,7 @@
       </c>
       <c r="J46" s="109"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="68" t="s">
         <v>12</v>
       </c>
@@ -88084,7 +88083,7 @@
       </c>
       <c r="J47" s="109"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>235</v>
       </c>
@@ -88111,7 +88110,7 @@
       </c>
       <c r="J48" s="109"/>
     </row>
-    <row r="49" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="49" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="100" t="s">
         <v>236</v>
       </c>
@@ -88139,7 +88138,7 @@
       </c>
       <c r="J49" s="109"/>
     </row>
-    <row r="50" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="50" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="98" t="s">
         <v>237</v>
       </c>
@@ -88167,7 +88166,7 @@
       </c>
       <c r="J50" s="109"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="100" t="s">
         <v>238</v>
       </c>
@@ -88195,7 +88194,7 @@
       </c>
       <c r="J51" s="109"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>239</v>
       </c>
@@ -88222,7 +88221,7 @@
       </c>
       <c r="J52" s="109"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="68" t="s">
         <v>240</v>
       </c>
@@ -88250,7 +88249,7 @@
       </c>
       <c r="J53" s="109"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="117" t="s">
         <v>186</v>
       </c>
@@ -88278,7 +88277,7 @@
       </c>
       <c r="J54" s="109"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62"/>
       <c r="B55" s="62"/>
       <c r="C55" s="107"/>
@@ -88288,7 +88287,7 @@
       <c r="G55" s="107"/>
       <c r="H55" s="107"/>
     </row>
-    <row r="56" spans="1:10" ht="18.75" thickBot="1">
+    <row r="56" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="56" t="s">
         <v>241</v>
       </c>
@@ -88316,7 +88315,7 @@
       </c>
       <c r="J56" s="60"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>222</v>
       </c>
@@ -88344,7 +88343,7 @@
       </c>
       <c r="J57" s="78"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
         <v>223</v>
       </c>
@@ -88372,7 +88371,7 @@
       </c>
       <c r="J58" s="122"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="98" t="s">
         <v>224</v>
       </c>
@@ -88400,7 +88399,7 @@
       </c>
       <c r="J59" s="122"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="100" t="s">
         <v>225</v>
       </c>
@@ -88428,7 +88427,7 @@
       </c>
       <c r="J60" s="122"/>
     </row>
-    <row r="61" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="61" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="98" t="s">
         <v>226</v>
       </c>
@@ -88456,7 +88455,7 @@
       </c>
       <c r="J61" s="122"/>
     </row>
-    <row r="62" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="62" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="100" t="s">
         <v>227</v>
       </c>
@@ -88484,7 +88483,7 @@
       </c>
       <c r="J62" s="122"/>
     </row>
-    <row r="63" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="63" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="98" t="s">
         <v>228</v>
       </c>
@@ -88512,7 +88511,7 @@
       </c>
       <c r="J63" s="122"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="68" t="s">
         <v>230</v>
       </c>
@@ -88540,7 +88539,7 @@
       </c>
       <c r="J64" s="122"/>
     </row>
-    <row r="65" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="65" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="98" t="s">
         <v>231</v>
       </c>
@@ -88568,7 +88567,7 @@
       </c>
       <c r="J65" s="122"/>
     </row>
-    <row r="66" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="66" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="123" t="s">
         <v>232</v>
       </c>
@@ -88596,7 +88595,7 @@
       </c>
       <c r="J66" s="122"/>
     </row>
-    <row r="67" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="67" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="98" t="s">
         <v>233</v>
       </c>
@@ -88624,7 +88623,7 @@
       </c>
       <c r="J67" s="122"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="68" t="s">
         <v>234</v>
       </c>
@@ -88652,7 +88651,7 @@
       </c>
       <c r="J68" s="122"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>12</v>
       </c>
@@ -88680,7 +88679,7 @@
       </c>
       <c r="J69" s="122"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="68" t="s">
         <v>235</v>
       </c>
@@ -88708,7 +88707,7 @@
       </c>
       <c r="J70" s="122"/>
     </row>
-    <row r="71" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="71" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="98" t="s">
         <v>236</v>
       </c>
@@ -88736,7 +88735,7 @@
       </c>
       <c r="J71" s="122"/>
     </row>
-    <row r="72" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="72" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="124" t="s">
         <v>237</v>
       </c>
@@ -88764,7 +88763,7 @@
       </c>
       <c r="J72" s="122"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="98" t="s">
         <v>238</v>
       </c>
@@ -88792,7 +88791,7 @@
       </c>
       <c r="J73" s="122"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="68" t="s">
         <v>240</v>
       </c>
@@ -88820,7 +88819,7 @@
       </c>
       <c r="J74" s="122"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="125" t="s">
         <v>186</v>
       </c>
@@ -88848,7 +88847,7 @@
       </c>
       <c r="J75" s="122"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="79"/>
       <c r="B76" s="80"/>
       <c r="C76" s="129"/>
@@ -88860,7 +88859,7 @@
       <c r="I76" s="129"/>
       <c r="J76" s="122"/>
     </row>
-    <row r="77" spans="1:10" ht="18.75" thickBot="1">
+    <row r="77" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="56" t="s">
         <v>242</v>
       </c>
@@ -88888,7 +88887,7 @@
       </c>
       <c r="J77" s="60"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>222</v>
       </c>
@@ -88916,7 +88915,7 @@
       </c>
       <c r="J78" s="78"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="68" t="s">
         <v>223</v>
       </c>
@@ -88944,7 +88943,7 @@
       </c>
       <c r="J79" s="122"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="98" t="s">
         <v>224</v>
       </c>
@@ -88972,7 +88971,7 @@
       </c>
       <c r="J80" s="122"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="100" t="s">
         <v>225</v>
       </c>
@@ -89000,7 +88999,7 @@
       </c>
       <c r="J81" s="122"/>
     </row>
-    <row r="82" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="82" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="98" t="s">
         <v>226</v>
       </c>
@@ -89028,7 +89027,7 @@
       </c>
       <c r="J82" s="122"/>
     </row>
-    <row r="83" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="83" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="100" t="s">
         <v>227</v>
       </c>
@@ -89056,7 +89055,7 @@
       </c>
       <c r="J83" s="122"/>
     </row>
-    <row r="84" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="84" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="98" t="s">
         <v>228</v>
       </c>
@@ -89084,7 +89083,7 @@
       </c>
       <c r="J84" s="122"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="68" t="s">
         <v>230</v>
       </c>
@@ -89112,7 +89111,7 @@
       </c>
       <c r="J85" s="122"/>
     </row>
-    <row r="86" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="86" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="98" t="s">
         <v>231</v>
       </c>
@@ -89140,7 +89139,7 @@
       </c>
       <c r="J86" s="122"/>
     </row>
-    <row r="87" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="87" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="123" t="s">
         <v>232</v>
       </c>
@@ -89168,7 +89167,7 @@
       </c>
       <c r="J87" s="122"/>
     </row>
-    <row r="88" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="88" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="98" t="s">
         <v>233</v>
       </c>
@@ -89196,7 +89195,7 @@
       </c>
       <c r="J88" s="122"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="68" t="s">
         <v>234</v>
       </c>
@@ -89224,7 +89223,7 @@
       </c>
       <c r="J89" s="122"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>12</v>
       </c>
@@ -89252,7 +89251,7 @@
       </c>
       <c r="J90" s="122"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="68" t="s">
         <v>235</v>
       </c>
@@ -89280,7 +89279,7 @@
       </c>
       <c r="J91" s="122"/>
     </row>
-    <row r="92" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="92" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="98" t="s">
         <v>236</v>
       </c>
@@ -89308,7 +89307,7 @@
       </c>
       <c r="J92" s="122"/>
     </row>
-    <row r="93" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="93" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="124" t="s">
         <v>237</v>
       </c>
@@ -89336,7 +89335,7 @@
       </c>
       <c r="J93" s="122"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="98" t="s">
         <v>238</v>
       </c>
@@ -89364,7 +89363,7 @@
       </c>
       <c r="J94" s="122"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="68" t="s">
         <v>240</v>
       </c>
@@ -89392,7 +89391,7 @@
       </c>
       <c r="J95" s="122"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="125" t="s">
         <v>186</v>
       </c>
@@ -89420,7 +89419,7 @@
       </c>
       <c r="J96" s="122"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1">
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="62"/>
       <c r="B97" s="62"/>
       <c r="C97" s="107"/>
@@ -89430,7 +89429,7 @@
       <c r="G97" s="107"/>
       <c r="H97" s="107"/>
     </row>
-    <row r="98" spans="1:10" ht="18.75" thickBot="1">
+    <row r="98" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="56" t="s">
         <v>243</v>
       </c>
@@ -89458,7 +89457,7 @@
       </c>
       <c r="J98" s="60"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="98" t="s">
         <v>244</v>
       </c>
@@ -89485,7 +89484,7 @@
       </c>
       <c r="J99" s="122"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="100" t="s">
         <v>245</v>
       </c>
@@ -89513,7 +89512,7 @@
       </c>
       <c r="J100" s="122"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="98" t="s">
         <v>246</v>
       </c>
@@ -89540,7 +89539,7 @@
       </c>
       <c r="J101" s="122"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="100" t="s">
         <v>247</v>
       </c>
@@ -89568,7 +89567,7 @@
       </c>
       <c r="J102" s="122"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="98" t="s">
         <v>248</v>
       </c>
@@ -89595,7 +89594,7 @@
       </c>
       <c r="J103" s="122"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="100" t="s">
         <v>249</v>
       </c>
@@ -89623,7 +89622,7 @@
       </c>
       <c r="J104" s="122"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="98" t="s">
         <v>250</v>
       </c>
@@ -89650,7 +89649,7 @@
       </c>
       <c r="J105" s="122"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="101" t="s">
         <v>251</v>
       </c>
@@ -89678,7 +89677,7 @@
       </c>
       <c r="J106" s="122"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="99" t="s">
         <v>252</v>
       </c>
@@ -89705,7 +89704,7 @@
       </c>
       <c r="J107" s="109"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="101" t="s">
         <v>253</v>
       </c>
@@ -89732,7 +89731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="99" t="s">
         <v>254</v>
       </c>
@@ -89759,7 +89758,7 @@
       </c>
       <c r="J109" s="60"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="101" t="s">
         <v>255</v>
       </c>
@@ -89787,7 +89786,7 @@
       </c>
       <c r="J110" s="109"/>
     </row>
-    <row r="111" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="111" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="99" t="s">
         <v>256</v>
       </c>
@@ -89815,7 +89814,7 @@
       </c>
       <c r="J111" s="109"/>
     </row>
-    <row r="112" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="112" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="101" t="s">
         <v>257</v>
       </c>
@@ -89843,7 +89842,7 @@
       </c>
       <c r="J112" s="109"/>
     </row>
-    <row r="113" spans="1:10" s="114" customFormat="1" ht="15.75" thickBot="1">
+    <row r="113" spans="1:10" s="114" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="125" t="s">
         <v>186</v>
       </c>
@@ -89871,7 +89870,7 @@
       </c>
       <c r="J113" s="109"/>
     </row>
-    <row r="114" spans="1:10" s="114" customFormat="1" ht="15.75" thickBot="1">
+    <row r="114" spans="1:10" s="114" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="99"/>
       <c r="B114" s="99"/>
       <c r="C114" s="107"/>
@@ -89883,7 +89882,7 @@
       <c r="I114"/>
       <c r="J114" s="109"/>
     </row>
-    <row r="115" spans="1:10" s="114" customFormat="1" ht="18.75" thickBot="1">
+    <row r="115" spans="1:10" s="114" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="56" t="s">
         <v>258</v>
       </c>
@@ -89911,7 +89910,7 @@
       </c>
       <c r="J115" s="109"/>
     </row>
-    <row r="116" spans="1:10" s="114" customFormat="1">
+    <row r="116" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>222</v>
       </c>
@@ -89939,7 +89938,7 @@
       </c>
       <c r="J116" s="109"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="68" t="s">
         <v>223</v>
       </c>
@@ -89967,7 +89966,7 @@
       </c>
       <c r="J117" s="133"/>
     </row>
-    <row r="118" spans="1:10" s="114" customFormat="1">
+    <row r="118" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="98" t="s">
         <v>224</v>
       </c>
@@ -89995,7 +89994,7 @@
       </c>
       <c r="J118" s="109"/>
     </row>
-    <row r="119" spans="1:10" s="114" customFormat="1">
+    <row r="119" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="100" t="s">
         <v>259</v>
       </c>
@@ -90023,7 +90022,7 @@
       </c>
       <c r="J119" s="109"/>
     </row>
-    <row r="120" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="120" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="98" t="s">
         <v>225</v>
       </c>
@@ -90051,7 +90050,7 @@
       </c>
       <c r="J120" s="109"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="100" t="s">
         <v>226</v>
       </c>
@@ -90079,7 +90078,7 @@
       </c>
       <c r="J121" s="109"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="98" t="s">
         <v>227</v>
       </c>
@@ -90106,7 +90105,7 @@
       </c>
       <c r="J122" s="109"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="100" t="s">
         <v>228</v>
       </c>
@@ -90134,7 +90133,7 @@
       </c>
       <c r="J123" s="109"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="98" t="s">
         <v>229</v>
       </c>
@@ -90161,7 +90160,7 @@
       </c>
       <c r="J124" s="109"/>
     </row>
-    <row r="125" spans="1:10" s="114" customFormat="1">
+    <row r="125" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="68" t="s">
         <v>230</v>
       </c>
@@ -90189,7 +90188,7 @@
       </c>
       <c r="J125" s="109"/>
     </row>
-    <row r="126" spans="1:10" s="114" customFormat="1" ht="14.25">
+    <row r="126" spans="1:10" s="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="98" t="s">
         <v>260</v>
       </c>
@@ -90217,7 +90216,7 @@
       </c>
       <c r="J126" s="109"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="100" t="s">
         <v>232</v>
       </c>
@@ -90245,7 +90244,7 @@
       </c>
       <c r="J127" s="109"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="98" t="s">
         <v>233</v>
       </c>
@@ -90272,7 +90271,7 @@
       </c>
       <c r="J128" s="109"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="68" t="s">
         <v>234</v>
       </c>
@@ -90300,7 +90299,7 @@
       </c>
       <c r="J129" s="109"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
         <v>12</v>
       </c>
@@ -90327,7 +90326,7 @@
       </c>
       <c r="J130" s="109"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="68" t="s">
         <v>235</v>
       </c>
@@ -90355,7 +90354,7 @@
       </c>
       <c r="J131" s="109"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="98" t="s">
         <v>236</v>
       </c>
@@ -90381,7 +90380,7 @@
         <v>1060.4055484272631</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="100" t="s">
         <v>237</v>
       </c>
@@ -90409,7 +90408,7 @@
       </c>
       <c r="J133" s="60"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="98" t="s">
         <v>238</v>
       </c>
@@ -90436,7 +90435,7 @@
       </c>
       <c r="J134" s="109"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="68" t="s">
         <v>239</v>
       </c>
@@ -90464,7 +90463,7 @@
       </c>
       <c r="J135" s="109"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="61" t="s">
         <v>240</v>
       </c>
@@ -90491,7 +90490,7 @@
       </c>
       <c r="J136" s="109"/>
     </row>
-    <row r="137" spans="1:10" ht="15.75" thickBot="1">
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="134" t="s">
         <v>186</v>
       </c>
@@ -90519,7 +90518,7 @@
       </c>
       <c r="J137" s="109"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="138" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="62"/>
       <c r="B138" s="62"/>
       <c r="C138" s="107"/>
@@ -90530,7 +90529,7 @@
       <c r="H138" s="107"/>
       <c r="J138" s="109"/>
     </row>
-    <row r="139" spans="1:10" ht="18.75" thickBot="1">
+    <row r="139" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="56" t="s">
         <v>261</v>
       </c>
@@ -90558,7 +90557,7 @@
       </c>
       <c r="J139" s="109"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="61" t="s">
         <v>262</v>
       </c>
@@ -90586,7 +90585,7 @@
       </c>
       <c r="J140" s="109"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="100" t="s">
         <v>263</v>
       </c>
@@ -90600,7 +90599,7 @@
       <c r="I141" s="111"/>
       <c r="J141" s="109"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="98" t="s">
         <v>264</v>
       </c>
@@ -90621,7 +90620,7 @@
       <c r="I142" s="108"/>
       <c r="J142" s="109"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="100" t="s">
         <v>265</v>
       </c>
@@ -90641,7 +90640,7 @@
       <c r="I143" s="111"/>
       <c r="J143" s="109"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="98" t="s">
         <v>266</v>
       </c>
@@ -90668,7 +90667,7 @@
       </c>
       <c r="J144" s="109"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="100" t="s">
         <v>267</v>
       </c>
@@ -90690,7 +90689,7 @@
       <c r="I145" s="111"/>
       <c r="J145" s="109"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="98" t="s">
         <v>268</v>
       </c>
@@ -90717,7 +90716,7 @@
       </c>
       <c r="J146" s="109"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="100" t="s">
         <v>269</v>
       </c>
@@ -90745,7 +90744,7 @@
       </c>
       <c r="J147" s="109"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="98" t="s">
         <v>264</v>
       </c>
@@ -90772,7 +90771,7 @@
       </c>
       <c r="J148" s="109"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="100" t="s">
         <v>266</v>
       </c>
@@ -90800,7 +90799,7 @@
       </c>
       <c r="J149" s="75"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="98" t="s">
         <v>268</v>
       </c>
@@ -90826,7 +90825,7 @@
         <v>39.010000009234588</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
         <v>270</v>
       </c>
@@ -90853,7 +90852,7 @@
         <v>5.2116030849019062</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="98" t="s">
         <v>271</v>
       </c>
@@ -90873,7 +90872,7 @@
       <c r="H152" s="107"/>
       <c r="I152" s="108"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="100" t="s">
         <v>272</v>
       </c>
@@ -90900,7 +90899,7 @@
         <v>2.5205571355626204</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="98" t="s">
         <v>273</v>
       </c>
@@ -90926,7 +90925,7 @@
         <v>2.6910459493392862</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="100"/>
       <c r="B155" s="101"/>
       <c r="C155" s="110"/>
@@ -90937,7 +90936,7 @@
       <c r="H155" s="110"/>
       <c r="I155" s="111"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" thickBot="1">
+    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="79" t="s">
         <v>274</v>
       </c>
@@ -90964,7 +90963,7 @@
         <v>7.8382324901165461</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C157" s="73"/>
       <c r="D157" s="73"/>
       <c r="E157" s="73"/>
@@ -90973,7 +90972,7 @@
       <c r="H157" s="73"/>
       <c r="I157" s="73"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="99" t="s">
         <v>275</v>
       </c>
@@ -91000,11 +90999,11 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:AF19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -91016,7 +91015,7 @@
     <col min="29" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -91114,7 +91113,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>26</v>
       </c>
@@ -91212,7 +91211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>31</v>
       </c>
@@ -91310,7 +91309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>25</v>
       </c>
@@ -91408,7 +91407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>38</v>
       </c>
@@ -91506,7 +91505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>27</v>
       </c>
@@ -91604,7 +91603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>35</v>
       </c>
@@ -91702,7 +91701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>39</v>
       </c>
@@ -91800,7 +91799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>34</v>
       </c>
@@ -91898,7 +91897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>24</v>
       </c>
@@ -91996,7 +91995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>30</v>
       </c>
@@ -92094,7 +92093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>28</v>
       </c>
@@ -92192,7 +92191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>29</v>
       </c>
@@ -92290,7 +92289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>32</v>
       </c>
@@ -92388,7 +92387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>36</v>
       </c>
@@ -92486,7 +92485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>40</v>
       </c>
@@ -92584,7 +92583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>41</v>
       </c>
@@ -92682,7 +92681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>33</v>
       </c>
@@ -92780,7 +92779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -92809,99 +92808,76 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <f>MAX((Summary!K45-Summary!J45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="141">
-        <f>MAX((Summary!L45-Summary!K45)*1000,0)</f>
-        <v>484.44984249999834</v>
-      </c>
-      <c r="L19" s="141">
-        <f>MAX((Summary!M45-Summary!L45)*1000,0)</f>
-        <v>484.44984249999834</v>
-      </c>
-      <c r="M19" s="141">
-        <f>MAX((Summary!N45-Summary!M45)*1000,0)</f>
-        <v>3641.6150863997245</v>
-      </c>
-      <c r="N19" s="141">
-        <f>MAX((Summary!O45-Summary!N45)*1000,0)</f>
-        <v>3641.6150863997245</v>
-      </c>
-      <c r="O19" s="141">
-        <f>MAX((Summary!P45-Summary!O45)*1000,0)</f>
-        <v>3641.6150863997245</v>
-      </c>
-      <c r="P19" s="141">
-        <f>MAX((Summary!Q45-Summary!P45)*1000,0)</f>
-        <v>3641.615086400634</v>
-      </c>
-      <c r="Q19" s="141">
-        <f>MAX((Summary!R45-Summary!Q45)*1000,0)</f>
-        <v>3641.6150863997245</v>
-      </c>
-      <c r="R19" s="141">
-        <f>MAX((Summary!S45-Summary!R45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="141">
-        <f>MAX((Summary!T45-Summary!S45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="141">
-        <f>MAX((Summary!U45-Summary!T45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="141">
-        <f>MAX((Summary!V45-Summary!U45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="141">
-        <f>MAX((Summary!W45-Summary!V45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="141">
-        <f>MAX((Summary!X45-Summary!W45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="141">
-        <f>MAX((Summary!Y45-Summary!X45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="141">
-        <f>MAX((Summary!Z45-Summary!Y45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="141">
-        <f>MAX((Summary!AA45-Summary!Z45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="141">
-        <f>MAX((Summary!AB45-Summary!AA45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="141">
-        <f>MAX((Summary!AC45-Summary!AB45)*1000,0)</f>
-        <v>4.8683279629813114E-10</v>
-      </c>
-      <c r="AC19" s="141">
-        <f>MAX((Summary!AD45-Summary!AC45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="141">
-        <f>MAX((Summary!AE45-Summary!AD45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="141">
-        <f>MAX((Summary!AF45-Summary!AE45)*1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="141">
-        <f>MAX((Summary!AG45-Summary!AF45)*1000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -92999,7 +92975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -93097,7 +93073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -93195,7 +93171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>191</v>
       </c>
@@ -93293,7 +93269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>192</v>
       </c>
@@ -93391,7 +93367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>193</v>
       </c>
